--- a/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-9.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-9.xlsx
@@ -49,30 +49,30 @@
     <t>Alimentos</t>
   </si>
   <si>
+    <t>Otros Procedimientos Menores</t>
+  </si>
+  <si>
     <t>Relacion Directa Y Regular Con El Niño</t>
   </si>
   <si>
-    <t>Otros Procedimientos Menores</t>
-  </si>
-  <si>
     <t>Divorcio De Comun Acuerdo</t>
   </si>
   <si>
+    <t>Divorcio Por Cese De Convivencia</t>
+  </si>
+  <si>
     <t>Cuidado Personal Del Niño</t>
   </si>
   <si>
-    <t>Divorcio Por Cese De Convivencia</t>
-  </si>
-  <si>
     <t>Alimentos, Cesacion</t>
   </si>
   <si>
+    <t>Relacion Directa Y Regular Modificacion</t>
+  </si>
+  <si>
     <t>Alimentos, Aumento</t>
   </si>
   <si>
-    <t>Relacion Directa Y Regular Modificacion</t>
-  </si>
-  <si>
     <t>Convivencia, Notificacion Cese</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>Divorcio Por Culpa</t>
   </si>
   <si>
+    <t>Cuidado Personal Del Niño, Declaracion</t>
+  </si>
+  <si>
     <t>Alimentos Rebaja</t>
-  </si>
-  <si>
-    <t>Cuidado Personal Del Niño, Declaracion</t>
   </si>
   <si>
     <t>Autorización Para Enajenar Bienes Raíces</t>
@@ -806,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
